--- a/data-public/raw/tallahassee/12_18/counts/counts-sex-cause(113)-year(2004-2018)-12_18.xlsx
+++ b/data-public/raw/tallahassee/12_18/counts/counts-sex-cause(113)-year(2004-2018)-12_18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucf-my.sharepoint.com/personal/an499583_ucf_edu/Documents/GitHub/dss-hmi/suicide-prevention-2019/data-unshared/raw/talahassee/12_18/counts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucf-my.sharepoint.com/personal/an499583_ucf_edu/Documents/GitHub/dss-hmi/suicide-prevention-2019/data-public/raw/tallahassee/12_18/counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{223FB424-4402-460A-ADF4-3EE6452609A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{223FB424-4402-460A-ADF4-3EE6452609A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{45A1E2E0-0174-40FA-912F-7AC3380237E1}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380"/>
+    <workbookView xWindow="2740" yWindow="8680" windowWidth="28800" windowHeight="15010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recovered_Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,6 +699,24 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -725,24 +743,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1098,62 +1098,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.08984375" customWidth="1"/>
-    <col min="2" max="2" width="23.6796875" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" customWidth="1"/>
     <col min="3" max="3" width="19.26953125" customWidth="1"/>
     <col min="4" max="4" width="36.81640625" customWidth="1"/>
     <col min="5" max="19" width="4.90625" customWidth="1"/>
     <col min="20" max="20" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="14.75" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="12" t="s">
+    <row r="3" spans="1:20" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="14"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="20"/>
     </row>
-    <row r="4" spans="1:20" ht="14.75" x14ac:dyDescent="0.75">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="3">
         <v>2004</v>
       </c>
@@ -1203,14 +1203,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.75" x14ac:dyDescent="0.75">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1265,10 +1265,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+    <row r="6" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1321,10 +1321,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="14.75" x14ac:dyDescent="0.75">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1377,13 +1377,13 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18" t="s">
+    <row r="8" spans="1:20" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="3">
         <v>9</v>
       </c>
@@ -1433,13 +1433,13 @@
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="1:20" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="3">
         <v>9</v>
       </c>
@@ -1489,14 +1489,14 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.75" x14ac:dyDescent="0.75">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1551,10 +1551,10 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+    <row r="11" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1607,10 +1607,10 @@
         <v>390</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.75" x14ac:dyDescent="0.75">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1663,13 +1663,13 @@
         <v>791</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18" t="s">
+    <row r="13" spans="1:20" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="3">
         <v>43</v>
       </c>
@@ -1719,13 +1719,13 @@
         <v>791</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="1:20" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="3">
         <v>43</v>
       </c>
@@ -1775,13 +1775,13 @@
         <v>791</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:20" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="3">
         <v>52</v>
       </c>
@@ -1833,11 +1833,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:T3"/>
@@ -1846,6 +1841,11 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
